--- a/raw_data/Excel_bigram2.xlsx
+++ b/raw_data/Excel_bigram2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0A207-C581-934F-8E2E-05D7A7131A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B821DE22-1AEA-7B4B-AD5F-7534396EB153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{8DDC2B9C-F711-FD4C-9664-BFF6A8C4EFF5}"/>
+    <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="13600" xr2:uid="{8DDC2B9C-F711-FD4C-9664-BFF6A8C4EFF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -69,23 +69,6 @@
   </si>
   <si>
     <t>Services médicaux 
-Contrôle silicose
-Droit mineurs
-École secondaire</t>
-  </si>
-  <si>
-    <t>École secondaire 
-Offres d’emploi 
-Services médicaux 
-Gestion déchets 
-Pavage rues</t>
-  </si>
-  <si>
-    <t>Emploi jeunesse 
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Services médicaux 
 Rénovation maisons 
 Reboisement Mibladen 
 Gestion déchets 
@@ -142,11 +125,6 @@
 Vente minéraux </t>
   </si>
   <si>
-    <t>Commercialisation plomb minéraux ( vanadinite, cérusite, ..) 
-Coopératives mineurs
-Droit mineurs</t>
-  </si>
-  <si>
     <t>Réseau internet 
 Aménagement route   
 Services médicaux</t>
@@ -178,14 +156,6 @@
   </si>
   <si>
     <t>Souq hebdomadaire
-Transport public
-Services médicaux 
-Présence sécurité  
-École secondaire
-Rénovation maisons</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire
 Services médicaux 
 Transport public
 Rénovation maisons</t>
@@ -199,13 +169,6 @@
     <t>Souq hebdomadaire 
 Services médicaux 
 Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Gestion déchets 
-Aide financière
-Propriété maisons 
-Services médicaux 
-Emploi jeunesse</t>
   </si>
   <si>
     <t>Services médicaux 
@@ -226,11 +189,6 @@
 Offres d’emploi</t>
   </si>
   <si>
-    <t>Services médicaux 
-École secondaire
-Souq hebdomadaire</t>
-  </si>
-  <si>
     <t>Présence sécurité 
 Services médicaux 
 Propriété maisons</t>
@@ -266,11 +224,6 @@
 Services médicaux</t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Transport personnels 
-École secondaire</t>
-  </si>
-  <si>
     <t>Souq hebdomadaire
 Offres d’emploi 
 Services médicaux</t>
@@ -279,17 +232,6 @@
     <t>Services médicaux 
 Offres d’emploi 
 Souq hebdomadaire</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-École secondaire 
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-École secondaire 
-Gestion déchets
-Transport public</t>
   </si>
   <si>
     <t>Rénovation maisons 
@@ -299,13 +241,6 @@
 Services médicaux</t>
   </si>
   <si>
-    <t>Services médicaux 
-Hammam public 
-École secondaire 
-Présence sécurité 
-Propriété maisons</t>
-  </si>
-  <si>
     <t>Services médicaux
 Offres d’emploi 
 Souq hebdomadaire</t>
@@ -339,12 +274,6 @@
 Propriété maisons</t>
   </si>
   <si>
-    <t>Souq hebdomadaire 
-Emploi femmes 
-Transport public
-Propriété maisons</t>
-  </si>
-  <si>
     <t>Rénovation maisons 
 Services médicaux 
 Transport public 
@@ -355,11 +284,6 @@
 Offres d’emploi 
 Souq hebdomadaire 
 Services médicaux</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-École secondaire 
-Transport public</t>
   </si>
   <si>
     <t>Services médicaux 
@@ -388,56 +312,6 @@
   </si>
   <si>
     <t>Transport public
-Services médicaux 
-Eau potable
-École secondaire</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire 
-Services médicaux 
-École secondaire</t>
-  </si>
-  <si>
-    <t>École secondaire 
-Transport scolaire</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire  
-École secondaire</t>
-  </si>
-  <si>
-    <t>Transport public
-Aménagement route 
-Réseau communication
-Souq hebdomadaire 
-Offres d’emploi 
-Centre alphabétisation 
-École secondaire</t>
-  </si>
-  <si>
-    <t>Réseau communication 
-Réseau internet 
-Services médicaux
-École secondaire 
-Souq hebdomadaire</t>
-  </si>
-  <si>
-    <t>Transport public
-Aménagement route
-Classe préscolaire 
-Réseau internet
-Services médicaux 
-École secondaire</t>
-  </si>
-  <si>
-    <t>Classe préscolaire 
-Transport public
-Services médicaux 
-Aménagement route 
-Réseau communication</t>
-  </si>
-  <si>
-    <t>Transport public
 Souq hebdomadaire  
 Offres d’emploi</t>
   </si>
@@ -448,64 +322,12 @@
 Réseau internet</t>
   </si>
   <si>
-    <t>Souq hebdomadaire 
-Centre alphabétisation 
-Offres d’emploi 
-Aménagement route 
-Réseau internet 
-École secondaire</t>
-  </si>
-  <si>
-    <t>Aménagement route
-École secondaire 
-Classe préscolaire 
-Services médicaux 
-Réseau communication
-Transport public</t>
-  </si>
-  <si>
-    <t>Réseau internet 
-Aménagement route
-Services médicaux 
-Transport public 
-Classe préscolaire</t>
-  </si>
-  <si>
     <t>Réseau communication 
 Aménagement route 
 Services médicaux 
 Souq hebdomadaire</t>
   </si>
   <si>
-    <t>Réseau internet
-Aménagement route 
-Classe préscolaire</t>
-  </si>
-  <si>
-    <t>Classe préscolaire 
-Réseau communication 
-Réseau internet 
-Aménagement route
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Classe préscolaire 
-Aménagement route
-Réseau communication</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Centre alphabétisation
-Services médicaux 
-Classe préscolaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe préscolaire 
-Rénovation école
-Aménagement route
-Chambre prière </t>
-  </si>
-  <si>
     <t>Services médicaux
 Aménagement route
 Transport public
@@ -518,32 +340,8 @@
 Aménagement route</t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Transport public
-Centre alphabétisation 
-Aménagement route</t>
-  </si>
-  <si>
     <t>Réseau communication 
 Aménagement route</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Réseau communication 
-Transport personnel 
-Aide financière</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire 
-École secondaire 
-Transport public
-Hammam public
-Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Emploi femmes 
-Centre d’obstétrique 
-Souq hebdomadaire</t>
   </si>
   <si>
     <t>Offres d’emploi 
@@ -552,11 +350,6 @@
 Transport public</t>
   </si>
   <si>
-    <t>Services médicaux
-École secondaire 
-Offres d’emploi</t>
-  </si>
-  <si>
     <t>Services médicaux 
 Présence sécurité 
 Hammam public 
@@ -594,29 +387,12 @@
 </t>
   </si>
   <si>
-    <t>Services médicaux
-Contrôle silicose
-École secondaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aménagement route 
-Bourse minéraux
-Jardin Mibladen 
-Jeux enfants </t>
-  </si>
-  <si>
     <t xml:space="preserve">Réseau communication 
 Aménagement route
 Souq hebdomadaire 
 Services médicaux </t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Aménagement route 
-Bourses minéraux 
-Propriété maisons</t>
-  </si>
-  <si>
     <t>Aménagement route
 Offres d’emploi</t>
   </si>
@@ -626,14 +402,6 @@
 Propriété maisons</t>
   </si>
   <si>
-    <t xml:space="preserve">Offres d’emploi 
-École secondaire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emploi jeunesse 
-Services médicaux </t>
-  </si>
-  <si>
     <t>Services médicaux 
 Rénovation écoles 
 Eau potable</t>
@@ -643,23 +411,11 @@
 Réseau communication</t>
   </si>
   <si>
-    <t>Aménagement route
-Emploi jeunesse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aménagement route
 Services médicaux 
 Réseau communication </t>
   </si>
   <si>
-    <t>Droit mineurs 
-Souq hebdomadaire 
-Aménagement route 
-École secondaire 
-Transport scolaire 
-Offres d’emploi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offres d’emploi 
 Aménagement route </t>
   </si>
@@ -669,19 +425,6 @@
   </si>
   <si>
     <t xml:space="preserve">Offres d’emploi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Présence sécurité
-Services médicaux 
-Plantation reboisement Jardins Mibladen  
-Gestion déchets 
-Transport enfants 
-Eau potable 
-Restauration piscine 
-Centre langues 
-Panneaux publicité (Plaques publique) 
-Inspection alimentaire 
-Centre musical </t>
   </si>
   <si>
     <t>Services médicaux 
@@ -702,42 +445,9 @@
 Services médicaux </t>
   </si>
   <si>
-    <t>Droit mineurs 
-École secondaire  
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Propriété maisons 
-Souq hebdomadaire 
-École secondaire 
-Plantation reboisement Jardins Mibladen 
-Associations locales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coopératives mineurs
-Vente plomb
-Bourses minéraux 
-École secondaire </t>
-  </si>
-  <si>
     <t xml:space="preserve">Offres d’emploi 
 Services médicaux 
 Pavage rues </t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Contrôle silicose 
-Eau potable 
-École secondaire</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Réseau communication
-Services médicaux 
-Transport public 
-Canaux d’irrigations
-Emploi jeunesse 
-École secondaire</t>
   </si>
   <si>
     <t xml:space="preserve">Aménagement route 
@@ -747,24 +457,9 @@
 Canaux d’irrigation </t>
   </si>
   <si>
-    <t>Aménagement route
-Réseau internet 
-Transport scolaire 
-Classe préscolaires 
-Offres d’emploi 
-Restauration minière
-Transport public</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réseau internet 
 Aménagement route
 Services médicaux </t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Contrôle silicose
-École secondaire 
-Gestion déchets</t>
   </si>
   <si>
     <t xml:space="preserve">Propriété maisons 
@@ -777,11 +472,6 @@
 Aide financière </t>
   </si>
   <si>
-    <t>Services médicaux 
-Présence sécurité 
-École secondaire</t>
-  </si>
-  <si>
     <t>Rénovation maisons 
 Offres d’emploi 
 Propriété maisons</t>
@@ -804,13 +494,6 @@
 Aménagement route</t>
   </si>
   <si>
-    <t xml:space="preserve">Services médicaux 
-Réseau communication
-Aménagement route
-Classe préscolaire 
-Jeux enfants </t>
-  </si>
-  <si>
     <t>Aménagement route
 Réseau communication
 Problème d’achat</t>
@@ -829,12 +512,6 @@
     <t xml:space="preserve">Aménagement route 
 Réseau internet
 Eau potable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aménagement route
-Réseau communication
-Services médicaux 
-Classe préscolaire </t>
   </si>
   <si>
     <t xml:space="preserve">Aménagement route 
@@ -874,20 +551,9 @@
 Services médicaux</t>
   </si>
   <si>
-    <t>Présence sécurité 
-Vente plomb 
-Réseau communication 
-Aménagement route 
-Eau potable</t>
-  </si>
-  <si>
     <t>Réseau communication
 Aménagement route 
 Eau potable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Droit mineurs 
-Bourses minéraux </t>
   </si>
   <si>
     <t xml:space="preserve">Aménagement route
@@ -903,31 +569,6 @@
 Gestion déchets </t>
   </si>
   <si>
-    <t>Coopératives mineurs 
-Droit mineurs  
-Classe préscolaire 
-Offres d’emploi 
-Jeux enfants</t>
-  </si>
-  <si>
-    <t>Propriété maisons 
-Emploi jeunesse 
-École secondaire 
-Services médicaux 
-Coopératives mineurs
-Eau potable
-Gestion déchets</t>
-  </si>
-  <si>
-    <t>Coopératives mineurs  
-Droit mineurs
-Offres d’emploi 
-Services médicaux 
-Contrôle silicose  
-Gestion déchets 
-Bourses minéraux</t>
-  </si>
-  <si>
     <t>Offres d’emploi 
 Services médicaux  
 Contrôle silicose
@@ -936,12 +577,6 @@
   <si>
     <t xml:space="preserve">Réseau internet
 Transport public </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offres d’emploi 
-École secondaire  
-Gestion déchets 
-Services médicaux </t>
   </si>
   <si>
     <t>Problème commercialisation 
@@ -959,11 +594,6 @@
 Coopératives mineurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Bourses minéraux
-Aménagement route 
-Réseau internet </t>
-  </si>
-  <si>
     <t xml:space="preserve">Offres d’emploi 
 Droit mineurs 
 Transport public
@@ -989,34 +619,6 @@
 Contrôle silicose </t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Services médicaux 
-Centre alphabétisation 
-Maisons jeunesses</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Hammam public
-Souq hebdomadaire 
-École secondaire</t>
-  </si>
-  <si>
-    <t>Rénovation maisons 
-Offres d’emploi 
-Centre alphabétisation 
-Centre loisirs 
-Jeux enfants</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Hammam public 
-Gestion déchets 
-Offres d’emploi 
-Centre alphabétisation 
-Aide financière 
-Pavage rues</t>
-  </si>
-  <si>
     <t>Services médicaux 
 Autorisation d'électricité 
 Pavage rues
@@ -1024,36 +626,8 @@
 Offres d’emploi</t>
   </si>
   <si>
-    <t xml:space="preserve">Offres d’emploi 
-Centre alphabétisation </t>
-  </si>
-  <si>
     <t>Offres d’emploi  
 Aide financière</t>
-  </si>
-  <si>
-    <t>Soutien associations 
-École secondaire 
-Transport public</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Réseau communication
-Services médicaux
-Classe préscolaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau communication 
-Aménagement route 
-Classe préscolaire 
-Centre alphabétisation </t>
-  </si>
-  <si>
-    <t>Réseau communication   
-Réseau internet 
-Classe préscolaire 
-Centre alphabétisation 
-Chambre prière</t>
   </si>
   <si>
     <t>Aménagement route   
@@ -1066,13 +640,6 @@
 Gestion déchets </t>
   </si>
   <si>
-    <t>Souq hebdomadaire
-Services médicaux 
-Offres d’emploi 
-École secondaire 
-Aide financière</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aide financière 
 Services médicaux </t>
   </si>
@@ -1099,6 +666,50 @@
 Réseau internet
 Aménagement route 
 Autorisation d'électricité</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Contrôle silicose 
+Aménagement route
+Autorisation d'électricité 
+Réseau communication 
+Réseau Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route
+Réseau communication
+Autorisation d'électricité
+Propriété maisons </t>
+  </si>
+  <si>
+    <t>Droit mineurs 
+Commercialisation plomb</t>
+  </si>
+  <si>
+    <t>Coopératives mineurs  
+Droit mineurs
+Offres d’emploi 
+Services médicaux 
+Contrôle silicose  
+Gestion déchets 
+Commercialisation plomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercialisation plomb
+Aménagement route 
+Réseau internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route 
+Commercialisation plomb
+Jardin Mibladen 
+Jeux enfants </t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Aménagement route 
+Commercialisation plomb 
+Propriété maisons</t>
   </si>
   <si>
     <t>Droit mineurs 
@@ -1110,21 +721,409 @@
 Aide financière 
 Permission d’achat 
 Souq hebdomadaire 
-Bourses minéraux</t>
+Commercialisation plomb</t>
+  </si>
+  <si>
+    <t>Présence sécurité 
+Commercialisation plomb
+Réseau communication 
+Aménagement route 
+Eau potable</t>
+  </si>
+  <si>
+    <t>Commercialisation plomb
+Coopératives mineurs
+Droit mineurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présence sécurité
+Services médicaux 
+Plantation reboisement Jardins Mibladen  
+Gestion déchets 
+Transport scolaire 
+Eau potable 
+Restauration piscine 
+Centre langues 
+Panneaux publicité (Plaques publique) 
+Inspection alimentaire 
+Centre musical </t>
+  </si>
+  <si>
+    <t>Aménagement route
+Réseau internet 
+Transport scolaire 
+Éducation préscolaire 
+Offres d’emploi 
+Restauration minière
+Transport public</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Réseau communication
+Services médicaux
+Éducation préscolaire</t>
+  </si>
+  <si>
+    <t>Éducation préscolaire 
+Transport public
+Services médicaux 
+Aménagement route 
+Réseau communication</t>
+  </si>
+  <si>
+    <t>Réseau internet 
+Aménagement route
+Services médicaux 
+Transport public 
+Éducation préscolaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Transport public
+Éducation alphabétisation 
+Aménagement route</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Réseau communication 
+Transport public
+Aide financière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services médicaux 
+Réseau communication
+Aménagement route
+Éducation préscolaire 
+Jeux enfants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route
+Réseau communication
+Services médicaux 
+Éducation préscolaire </t>
+  </si>
+  <si>
+    <t>Coopératives mineurs 
+Droit mineurs  
+Éducation préscolaire 
+Offres d’emploi 
+Jeux enfants</t>
+  </si>
+  <si>
+    <t>Réseau internet
+Aménagement route 
+Éducation préscolaire</t>
+  </si>
+  <si>
+    <t>Éducation préscolaire 
+Réseau communication 
+Réseau internet 
+Aménagement route
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Éducation préscolaire 
+Aménagement route
+Réseau communication</t>
+  </si>
+  <si>
+    <t>Réseau communication   
+Réseau internet 
+Éducation préscolaire 
+Éducation alphabétisation 
+Chambre prière</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Éducation alphabétisation
+Services médicaux 
+Éducation préscolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éducation préscolaire 
+Rénovation école
+Aménagement route
+Chambre prière </t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire 
+Emploi femme
+Transport public
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Emploi femme 
+Centre d’obstétrique 
+Souq hebdomadaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emploi jeune
+Services médicaux </t>
+  </si>
+  <si>
+    <t>Aménagement route
+Emploi jeune</t>
+  </si>
+  <si>
+    <t>Emploi jeune
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Gestion déchets 
+Aide financière
+Propriété maisons 
+Services médicaux 
+Emploi jeune</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Contrôle silicose
+Éducation secondaire 
+Gestion déchets</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Présence sécurité 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Propriété maisons 
+Emploi jeune
+Éducation secondaire 
+Services médicaux 
+Coopératives mineurs
+Eau potable
+Gestion déchets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offres d’emploi 
+Éducation secondaire  
+Gestion déchets 
+Services médicaux </t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire
+Transport public
+Services médicaux 
+Présence sécurité  
+Éducation secondaire
+Rénovation maisons</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Éducation secondaire
+Souq hebdomadaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Transport public 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Hammam public
+Souq hebdomadaire 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Éducation secondaire 
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Éducation secondaire 
+Gestion déchets
+Transport public</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Hammam public 
+Éducation secondaire 
+Présence sécurité 
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Éducation secondaire 
+Transport public</t>
+  </si>
+  <si>
+    <t>Rénovation maisons 
+Offres d’emploi 
+Éducation alphabétisation 
+Centre loisirs 
+Jeux enfants</t>
+  </si>
+  <si>
+    <t>Transport public
+Services médicaux 
+Eau potable
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire 
+Services médicaux 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offres d’emploi 
+Éducation alphabétisation </t>
+  </si>
+  <si>
+    <t>Éducation secondaire 
+Transport scolaire</t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire  
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Soutien associations 
+Éducation secondaire 
+Transport public</t>
+  </si>
+  <si>
+    <t>Transport public
+Aménagement route 
+Réseau communication
+Souq hebdomadaire 
+Offres d’emploi 
+Éducation alphabétisation 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Réseau communication 
+Réseau internet 
+Services médicaux
+Éducation secondaire 
+Souq hebdomadaire</t>
+  </si>
+  <si>
+    <t>Transport public
+Aménagement route
+Éducation préscolaire 
+Réseau internet
+Services médicaux 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Aménagement route
+Éducation secondaire 
+Éducation préscolaire 
+Services médicaux 
+Réseau communication
+Transport public</t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire 
+Éducation secondaire 
+Transport public
+Hammam public
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire
+Services médicaux 
+Offres d’emploi 
+Éducation secondaire 
+Aide financière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offres d’emploi 
+Éducation secondaire </t>
+  </si>
+  <si>
+    <t>Services médicaux
+Éducation secondaire 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Services médicaux
+Contrôle silicose
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Droit mineurs 
+Souq hebdomadaire 
+Aménagement route 
+Éducation secondaire 
+Transport scolaire 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Contrôle silicose
+Droit mineurs
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Éducation secondaire 
+Offres d’emploi 
+Services médicaux 
+Gestion déchets 
+Pavage rues</t>
+  </si>
+  <si>
+    <t>Droit mineurs 
+Éducation secondaire  
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Propriété maisons 
+Souq hebdomadaire 
+Éducation secondaire 
+Plantation reboisement Jardins Mibladen 
+Associations locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coopératives mineurs
+Commercialisation plomb
+Éducation secondaire </t>
   </si>
   <si>
     <t>Services médicaux 
 Contrôle silicose 
-Aménagement route
-Autorisation d'électricité 
-Réseau communication 
-Réseau Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aménagement route
+Eau potable 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Aménagement route 
 Réseau communication
-Autorisation d'électricité
-Propriété maisons </t>
+Services médicaux 
+Transport public 
+Canaux d’irrigations
+Emploi jeune 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Services médicaux 
+Éducation alphabétisation 
+Maisons jeunesses</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Hammam public 
+Gestion déchets 
+Offres d’emploi 
+Éducation alphabétisation 
+Aide financière 
+Pavage rues</t>
+  </si>
+  <si>
+    <t>Souq hebdomadaire 
+Éducation alphabétisation 
+Offres d’emploi 
+Aménagement route 
+Réseau internet 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réseau communication 
+Aménagement route 
+Éducation préscolaire 
+Éducation alphabétisation </t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C60CDE-E078-C848-845A-FDDB251BA96D}">
   <dimension ref="D1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,18 +1536,18 @@
     </row>
     <row r="2" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1557,62 +1556,62 @@
     </row>
     <row r="4" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="126" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -1623,128 +1622,128 @@
     </row>
     <row r="10" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1755,18 +1754,18 @@
     </row>
     <row r="22" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1775,7 +1774,7 @@
     </row>
     <row r="24" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1786,51 +1785,51 @@
     </row>
     <row r="25" spans="4:6" ht="140" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -1839,260 +1838,260 @@
     </row>
     <row r="30" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" ht="112" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="140" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="56" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="168" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="140" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" ht="56" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="4:6" ht="154" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>4</v>
@@ -2101,139 +2100,139 @@
     </row>
     <row r="54" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="4:6" ht="112" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>4</v>
@@ -2244,1551 +2243,1551 @@
     </row>
     <row r="67" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="112" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" ht="140" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" ht="238" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" ht="170" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="4:6" ht="170" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6" ht="187" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="4:6" ht="187" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="4:6" ht="170" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="4:6" ht="170" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="4:6" ht="85" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="4:6" ht="102" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="4:6" ht="136" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="190" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="192" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="197" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="199" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="200" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="4:6" ht="136" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
     </row>
     <row r="205" spans="4:6" ht="136" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
     </row>
     <row r="207" spans="4:6" ht="153" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/Excel_bigram2.xlsx
+++ b/raw_data/Excel_bigram2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaud/Library/CloudStorage/Dropbox/CLESSN/ellipse_maroc/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B821DE22-1AEA-7B4B-AD5F-7534396EB153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FCAA20-90A6-A940-91BC-20D09D8C2839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="13600" xr2:uid="{8DDC2B9C-F711-FD4C-9664-BFF6A8C4EFF5}"/>
   </bookViews>
@@ -146,52 +146,15 @@
 Aide financière</t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Services médicaux 
-Souq hebdomadaire</t>
-  </si>
-  <si>
     <t>Aide financière 
 Rénovation maisons</t>
   </si>
   <si>
-    <t>Souq hebdomadaire
-Services médicaux 
-Transport public
-Rénovation maisons</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire
-Services médicaux 
-Rénovation maisons</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire 
-Services médicaux 
-Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Transport scolaire 
-Aide financière</t>
-  </si>
-  <si>
     <t>Rénovation maisons</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Offres d’emploi 
-Souq hebdomadaire
-Centre loisirs</t>
   </si>
   <si>
     <t>Services médicaux 
 Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Présence sécurité 
-Services médicaux 
-Propriété maisons</t>
   </si>
   <si>
     <t>Services médicaux</t>
@@ -202,14 +165,6 @@
 Transport public</t>
   </si>
   <si>
-    <t>Services médicaux 
-Souq hebdomadaire 
-Transport scolaire</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire</t>
-  </si>
-  <si>
     <t>Rénovation maisons 
 Offres d’emploi 
 Gestion déchets</t>
@@ -220,51 +175,6 @@
 Transport public</t>
   </si>
   <si>
-    <t>Souq hebdomadaire 
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire
-Offres d’emploi 
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Offres d’emploi 
-Souq hebdomadaire</t>
-  </si>
-  <si>
-    <t>Rénovation maisons 
-Propriété maisons 
-Offres d’emploi 
-Présence sécurité 
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Services médicaux
-Offres d’emploi 
-Souq hebdomadaire</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire
-Transport public
-Services médicaux
-Propriété maisons 
-Aide financière</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-Souq hebdomadaire 
-Services médicaux  
-Propriété maisons</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire
-Propriété maisons 
-Offres d’emploi 
-Transport public</t>
-  </si>
-  <si>
     <t>Offres d’emploi 
 Jardins public
 Gestion déchets</t>
@@ -274,64 +184,7 @@
 Propriété maisons</t>
   </si>
   <si>
-    <t>Rénovation maisons 
-Services médicaux 
-Transport public 
-Souq hebdomadaire</t>
-  </si>
-  <si>
-    <t>Rénovation maisons 
-Offres d’emploi 
-Souq hebdomadaire 
-Services médicaux</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Souq hebdomadaire 
-Gestion déchets</t>
-  </si>
-  <si>
     <t>Offres d’emploi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Services médicaux 
-Offres d’emploi 
-Aménagement route 
-Gestion déchets 
-Présence sécurité </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souq hebdomadaire
-Services médicaux </t>
-  </si>
-  <si>
-    <t>Rénovation maisons 
-Services médicaux 
-Souq hebdomadaire 
-Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Transport public
-Souq hebdomadaire  
-Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Transport public
-Souq hebdomadaire 
-Réseau communication  
-Réseau internet</t>
-  </si>
-  <si>
-    <t>Réseau communication 
-Aménagement route 
-Services médicaux 
-Souq hebdomadaire</t>
-  </si>
-  <si>
-    <t>Services médicaux
-Aménagement route
-Transport public
-Souq hebdomadaire</t>
   </si>
   <si>
     <t>Offres d’emploi 
@@ -344,39 +197,16 @@
 Aménagement route</t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Souq hebdomadaire 
-Hammam public
-Transport public</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Présence sécurité 
-Hammam public 
-Maisons jeunesse</t>
-  </si>
-  <si>
     <t>Aide financière 
 Services médicaux 
 Offres d’emploi  
 Propriété maisons</t>
   </si>
   <si>
-    <t>Services médicaux 
-Offres d’emploi 
-Transport public
-Souq hebdomadaire</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport public
-Souq hebdomadaire 
-Rénovation maisons </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -385,12 +215,6 @@
   <si>
     <t xml:space="preserve">Services médicaux 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseau communication 
-Aménagement route
-Souq hebdomadaire 
-Services médicaux </t>
   </si>
   <si>
     <t>Aménagement route
@@ -462,16 +286,6 @@
 Services médicaux </t>
   </si>
   <si>
-    <t xml:space="preserve">Propriété maisons 
-Rénovations maisons 
-Autorisation d’électricité 
-Jardins public 
-Travaux social 
-Gestion déchets 
-Offres d’emploi 
-Aide financière </t>
-  </si>
-  <si>
     <t>Rénovation maisons 
 Offres d’emploi 
 Propriété maisons</t>
@@ -484,11 +298,6 @@
 Reboisement plantation</t>
   </si>
   <si>
-    <t xml:space="preserve">Soutien associations
-Services médicaux 
-Transport scolaire </t>
-  </si>
-  <si>
     <t>Réseau internet 
 Eau potable 
 Aménagement route</t>
@@ -514,12 +323,6 @@
 Eau potable </t>
   </si>
   <si>
-    <t xml:space="preserve">Aménagement route 
-Autorisation d'électricité 
-Réseau internet
-Transport scolaire </t>
-  </si>
-  <si>
     <t>Réseau communication
 Aménagement route 
 Droit mineurs</t>
@@ -529,13 +332,6 @@
 Aménagement route</t>
   </si>
   <si>
-    <t>Aménagement route
-Réseau communication 
-Services médicaux 
-Autorisation d'électricité  
-Aide financière</t>
-  </si>
-  <si>
     <t>Réseau communication 
 Aménagement route
 Services médicaux</t>
@@ -546,19 +342,9 @@
 Services médicaux</t>
   </si>
   <si>
-    <t>Aménagement route 
-Transport scolaire 
-Services médicaux</t>
-  </si>
-  <si>
     <t>Réseau communication
 Aménagement route 
 Eau potable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aménagement route
-Services médicaux 
-Transport scolaire </t>
   </si>
   <si>
     <t xml:space="preserve">Droit mineurs 
@@ -577,12 +363,6 @@
   <si>
     <t xml:space="preserve">Réseau internet
 Transport public </t>
-  </si>
-  <si>
-    <t>Problème commercialisation 
-Propriété maisons 
-Rénovation maisons
-Souq hebdomadaire</t>
   </si>
   <si>
     <t>Aménagement route 
@@ -619,23 +399,10 @@
 Contrôle silicose </t>
   </si>
   <si>
-    <t>Services médicaux 
-Autorisation d'électricité 
-Pavage rues
-Souq hebdomadaire 
-Offres d’emploi</t>
-  </si>
-  <si>
     <t>Offres d’emploi  
 Aide financière</t>
   </si>
   <si>
-    <t>Aménagement route   
-Réseau communication 
-Services médicaux
-Souq hebdomadaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Services médicaux 
 Gestion déchets </t>
   </si>
@@ -649,37 +416,6 @@
   <si>
     <t>Transport public 
 Aide financière</t>
-  </si>
-  <si>
-    <t>Offres d’emploi 
-Réseau communication 
-Aménagement route 
-Autorisation d'électricité</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Réseau communication 
-Autorisation d'électricité</t>
-  </si>
-  <si>
-    <t>Réseau communication
-Réseau internet
-Aménagement route 
-Autorisation d'électricité</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Contrôle silicose 
-Aménagement route
-Autorisation d'électricité 
-Réseau communication 
-Réseau Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aménagement route
-Réseau communication
-Autorisation d'électricité
-Propriété maisons </t>
   </si>
   <si>
     <t>Droit mineurs 
@@ -712,50 +448,9 @@
 Propriété maisons</t>
   </si>
   <si>
-    <t>Droit mineurs 
-Aménagement route
-Réseau internet 
-Autorisation d'électricité
-Présence sécurité 
-Offres d’emploi 
-Aide financière 
-Permission d’achat 
-Souq hebdomadaire 
-Commercialisation plomb</t>
-  </si>
-  <si>
-    <t>Présence sécurité 
-Commercialisation plomb
-Réseau communication 
-Aménagement route 
-Eau potable</t>
-  </si>
-  <si>
     <t>Commercialisation plomb
 Coopératives mineurs
 Droit mineurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Présence sécurité
-Services médicaux 
-Plantation reboisement Jardins Mibladen  
-Gestion déchets 
-Transport scolaire 
-Eau potable 
-Restauration piscine 
-Centre langues 
-Panneaux publicité (Plaques publique) 
-Inspection alimentaire 
-Centre musical </t>
-  </si>
-  <si>
-    <t>Aménagement route
-Réseau internet 
-Transport scolaire 
-Éducation préscolaire 
-Offres d’emploi 
-Restauration minière
-Transport public</t>
   </si>
   <si>
     <t>Aménagement route 
@@ -778,12 +473,6 @@
 Éducation préscolaire</t>
   </si>
   <si>
-    <t>Offres d’emploi 
-Transport public
-Éducation alphabétisation 
-Aménagement route</t>
-  </si>
-  <si>
     <t>Aménagement route 
 Réseau communication 
 Transport public
@@ -827,34 +516,10 @@
 Réseau communication</t>
   </si>
   <si>
-    <t>Réseau communication   
-Réseau internet 
-Éducation préscolaire 
-Éducation alphabétisation 
-Chambre prière</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Éducation alphabétisation
-Services médicaux 
-Éducation préscolaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Éducation préscolaire 
 Rénovation école
 Aménagement route
 Chambre prière </t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire 
-Emploi femme
-Transport public
-Propriété maisons</t>
-  </si>
-  <si>
-    <t>Emploi femme 
-Centre d’obstétrique 
-Souq hebdomadaire</t>
   </si>
   <si>
     <t xml:space="preserve">Emploi jeune
@@ -880,11 +545,6 @@
 Contrôle silicose
 Éducation secondaire 
 Gestion déchets</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Présence sécurité 
-Éducation secondaire</t>
   </si>
   <si>
     <t>Propriété maisons 
@@ -902,27 +562,8 @@
 Services médicaux </t>
   </si>
   <si>
-    <t>Souq hebdomadaire
-Transport public
-Services médicaux 
-Présence sécurité  
-Éducation secondaire
-Rénovation maisons</t>
-  </si>
-  <si>
-    <t>Services médicaux 
-Éducation secondaire
-Souq hebdomadaire</t>
-  </si>
-  <si>
     <t>Offres d’emploi 
 Transport public 
-Éducation secondaire</t>
-  </si>
-  <si>
-    <t>Aménagement route 
-Hammam public
-Souq hebdomadaire 
 Éducation secondaire</t>
   </si>
   <si>
@@ -937,23 +578,9 @@
 Transport public</t>
   </si>
   <si>
-    <t>Services médicaux 
-Hammam public 
-Éducation secondaire 
-Présence sécurité 
-Propriété maisons</t>
-  </si>
-  <si>
     <t>Offres d’emploi 
 Éducation secondaire 
 Transport public</t>
-  </si>
-  <si>
-    <t>Rénovation maisons 
-Offres d’emploi 
-Éducation alphabétisation 
-Centre loisirs 
-Jeux enfants</t>
   </si>
   <si>
     <t>Transport public
@@ -962,42 +589,9 @@
 Éducation secondaire</t>
   </si>
   <si>
-    <t>Souq hebdomadaire 
-Services médicaux 
-Éducation secondaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offres d’emploi 
-Éducation alphabétisation </t>
-  </si>
-  <si>
-    <t>Éducation secondaire 
-Transport scolaire</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire  
-Éducation secondaire</t>
-  </si>
-  <si>
     <t>Soutien associations 
 Éducation secondaire 
 Transport public</t>
-  </si>
-  <si>
-    <t>Transport public
-Aménagement route 
-Réseau communication
-Souq hebdomadaire 
-Offres d’emploi 
-Éducation alphabétisation 
-Éducation secondaire</t>
-  </si>
-  <si>
-    <t>Réseau communication 
-Réseau internet 
-Services médicaux
-Éducation secondaire 
-Souq hebdomadaire</t>
   </si>
   <si>
     <t>Transport public
@@ -1016,20 +610,6 @@
 Transport public</t>
   </si>
   <si>
-    <t>Souq hebdomadaire 
-Éducation secondaire 
-Transport public
-Hammam public
-Offres d’emploi</t>
-  </si>
-  <si>
-    <t>Souq hebdomadaire
-Services médicaux 
-Offres d’emploi 
-Éducation secondaire 
-Aide financière</t>
-  </si>
-  <si>
     <t xml:space="preserve">Offres d’emploi 
 Éducation secondaire </t>
   </si>
@@ -1042,14 +622,6 @@
     <t>Services médicaux
 Contrôle silicose
 Éducation secondaire</t>
-  </si>
-  <si>
-    <t>Droit mineurs 
-Souq hebdomadaire 
-Aménagement route 
-Éducation secondaire 
-Transport scolaire 
-Offres d’emploi</t>
   </si>
   <si>
     <t>Services médicaux 
@@ -1068,13 +640,6 @@
     <t>Droit mineurs 
 Éducation secondaire  
 Services médicaux</t>
-  </si>
-  <si>
-    <t>Propriété maisons 
-Souq hebdomadaire 
-Éducation secondaire 
-Plantation reboisement Jardins Mibladen 
-Associations locales</t>
   </si>
   <si>
     <t xml:space="preserve">Coopératives mineurs
@@ -1097,33 +662,467 @@
 Éducation secondaire</t>
   </si>
   <si>
+    <t xml:space="preserve">Réseau communication 
+Aménagement route
+Souk hebdomadaire 
+Services médicaux </t>
+  </si>
+  <si>
+    <t>Propriété maisons 
+Souk hebdomadaire 
+Éducation secondaire 
+Plantation reboisement Jardins Mibladen 
+Associations locales</t>
+  </si>
+  <si>
+    <t>Problème commercialisation 
+Propriété maisons 
+Rénovation maisons
+Souk hebdomadaire</t>
+  </si>
+  <si>
     <t>Offres d’emploi 
 Services médicaux 
-Éducation alphabétisation 
-Maisons jeunesses</t>
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Services médicaux 
+Transport public
+Rénovation maisons</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Services médicaux 
+Rénovation maisons</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire 
+Services médicaux 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Offres d’emploi 
+Souk hebdomadaire
+Centre loisirs</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Éducation secondaire
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Services sécurité 
+Services médicaux 
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Souk hebdomadaire 
+Transport public</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire 
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Offres d’emploi 
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Offres d’emploi 
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Hammam public
+Souk hebdomadaire 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Hammam public 
+Éducation secondaire 
+Services sécurité 
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Services médicaux
+Offres d’emploi 
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Transport public
+Services médicaux
+Propriété maisons 
+Aide financière</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Souk hebdomadaire 
+Services médicaux  
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Propriété maisons 
+Offres d’emploi 
+Transport public</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire 
+Emploi femme
+Transport public
+Propriété maisons</t>
+  </si>
+  <si>
+    <t>Rénovation maisons 
+Services médicaux 
+Transport public 
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Rénovation maisons 
+Offres d’emploi 
+Souk hebdomadaire 
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Rénovation maisons 
+Offres d’emploi 
+Service d'alphabétisation 
+Centre loisirs 
+Jeux enfants</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Souk hebdomadaire 
+Gestion déchets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services médicaux 
+Offres d’emploi 
+Aménagement route 
+Gestion déchets 
+Services sécurité </t>
   </si>
   <si>
     <t>Services médicaux 
 Hammam public 
 Gestion déchets 
 Offres d’emploi 
-Éducation alphabétisation 
+Service d'alphabétisation 
 Aide financière 
 Pavage rues</t>
   </si>
   <si>
-    <t>Souq hebdomadaire 
-Éducation alphabétisation 
+    <t xml:space="preserve">Souk hebdomadaire
+Services médicaux </t>
+  </si>
+  <si>
+    <t>Rénovation maisons 
+Services médicaux 
+Souk hebdomadaire 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire 
+Services médicaux 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offres d’emploi 
+Service d'alphabétisation </t>
+  </si>
+  <si>
+    <t>Éducation secondaire 
+Transport public</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire  
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Transport public
+Aménagement route 
+Réseau communication
+Souk hebdomadaire 
+Offres d’emploi 
+Service d'alphabétisation 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Réseau communication 
+Réseau internet 
+Services médicaux
+Éducation secondaire 
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Transport public
+Souk hebdomadaire  
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Transport public
+Souk hebdomadaire 
+Réseau communication  
+Réseau internet</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire 
+Service d'alphabétisation 
 Offres d’emploi 
 Aménagement route 
 Réseau internet 
 Éducation secondaire</t>
   </si>
   <si>
+    <t>Réseau communication 
+Aménagement route 
+Services médicaux 
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Aménagement route   
+Réseau communication 
+Services médicaux
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire 
+Éducation secondaire 
+Transport public
+Hammam public
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Services médicaux 
+Offres d’emploi 
+Éducation secondaire 
+Aide financière</t>
+  </si>
+  <si>
+    <t>Emploi femme 
+Centre d’obstétrique 
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Souk hebdomadaire 
+Hammam public
+Transport public</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Offres d’emploi 
+Transport public
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport public
+Souk hebdomadaire 
+Rénovation maisons </t>
+  </si>
+  <si>
+    <t>Services médicaux
+Aménagement route
+Transport public
+Souk hebdomadaire</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Services sécurité 
+Hammam public 
+Maisons jeunesse</t>
+  </si>
+  <si>
+    <t>Droit mineurs 
+Aménagement route
+Réseau internet 
+Accès électricité
+Services sécurité 
+Offres d’emploi 
+Aide financière 
+Permission d’achat 
+Souk hebdomadaire 
+Commercialisation plomb</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Services sécurité 
+Éducation secondaire</t>
+  </si>
+  <si>
+    <t>Services sécurité 
+Commercialisation plomb
+Réseau communication 
+Aménagement route 
+Eau potable</t>
+  </si>
+  <si>
+    <t>Souk hebdomadaire
+Transport public
+Services médicaux 
+Services sécurité  
+Éducation secondaire
+Rénovation maisons</t>
+  </si>
+  <si>
+    <t>Rénovation maisons 
+Propriété maisons 
+Offres d’emploi 
+Services sécurité 
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Contrôle silicose 
+Aménagement route
+Accès électricité 
+Réseau communication 
+Réseau Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route
+Réseau communication
+Accès électricité
+Propriété maisons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriété maisons 
+Rénovations maisons 
+Accès électricité 
+Jardins public 
+Travaux social 
+Gestion déchets 
+Offres d’emploi 
+Aide financière </t>
+  </si>
+  <si>
+    <t>Aménagement route
+Réseau communication 
+Services médicaux 
+Accès électricité  
+Aide financière</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Accès électricité 
+Pavage rues
+Souk hebdomadaire 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Réseau communication 
+Aménagement route 
+Accès électricité</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Réseau communication 
+Accès électricité</t>
+  </si>
+  <si>
+    <t>Réseau communication
+Réseau internet
+Aménagement route 
+Accès électricité</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Services médicaux 
+Service d'alphabétisation 
+Maisons jeunesses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réseau communication 
 Aménagement route 
 Éducation préscolaire 
-Éducation alphabétisation </t>
+Service d'alphabétisation </t>
+  </si>
+  <si>
+    <t>Réseau communication   
+Réseau internet 
+Éducation préscolaire 
+Service d'alphabétisation 
+Chambre prière</t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Service d'alphabétisation
+Services médicaux 
+Éducation préscolaire</t>
+  </si>
+  <si>
+    <t>Offres d’emploi 
+Transport public
+Service d'alphabétisation 
+Aménagement route</t>
+  </si>
+  <si>
+    <t>Droit mineurs 
+Souk hebdomadaire 
+Aménagement route 
+Éducation secondaire 
+Transport public 
+Offres d’emploi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services sécurité
+Services médicaux 
+Plantation reboisement Jardins Mibladen  
+Gestion déchets 
+Transport public 
+Eau potable 
+Restauration piscine 
+Centre langues 
+Panneaux publicité (Plaques publique) 
+Inspection alimentaire 
+Centre musical </t>
+  </si>
+  <si>
+    <t>Aménagement route
+Réseau internet  
+Éducation préscolaire 
+Offres d’emploi 
+Restauration minière
+Transport public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soutien associations
+Services médicaux 
+Transport public </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route 
+Accès électricité 
+Réseau internet
+Transport public </t>
+  </si>
+  <si>
+    <t>Aménagement route 
+Transport public 
+Services médicaux</t>
+  </si>
+  <si>
+    <t>Services médicaux 
+Transport public 
+Aide financière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aménagement route
+Services médicaux 
+Transport public </t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C60CDE-E078-C848-845A-FDDB251BA96D}">
   <dimension ref="D1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,18 +1535,18 @@
     </row>
     <row r="2" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1556,62 +1555,62 @@
     </row>
     <row r="4" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="126" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -1622,128 +1621,128 @@
     </row>
     <row r="10" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" ht="42" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1754,18 +1753,18 @@
     </row>
     <row r="22" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1774,7 +1773,7 @@
     </row>
     <row r="24" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1785,51 +1784,51 @@
     </row>
     <row r="25" spans="4:6" ht="140" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -1838,84 +1837,84 @@
     </row>
     <row r="30" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="168" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="140" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>3</v>
@@ -1924,9 +1923,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>3</v>
@@ -1937,128 +1936,128 @@
     </row>
     <row r="39" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="98" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>4</v>
@@ -2067,9 +2066,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="4:6" ht="154" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>4</v>
@@ -2078,29 +2077,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="98" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="4:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>4</v>
@@ -2111,117 +2110,117 @@
     </row>
     <row r="55" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="4:6" ht="112" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" ht="84" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>3</v>
@@ -2232,18 +2231,18 @@
     </row>
     <row r="66" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" ht="84" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>4</v>
@@ -2254,29 +2253,29 @@
     </row>
     <row r="68" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="112" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>4</v>
@@ -2287,18 +2286,18 @@
     </row>
     <row r="71" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" ht="84" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -2309,62 +2308,62 @@
     </row>
     <row r="73" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" ht="84" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>4</v>
@@ -2375,73 +2374,73 @@
     </row>
     <row r="79" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>4</v>
@@ -2452,161 +2451,161 @@
     </row>
     <row r="86" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="4:6" ht="70" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="4:6" ht="28" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="4:6" ht="98" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="4:6" ht="84" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" ht="84" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
@@ -2617,29 +2616,29 @@
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>4</v>
@@ -2650,40 +2649,40 @@
     </row>
     <row r="104" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="4:6" ht="42" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="56" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>3</v>
@@ -2694,7 +2693,7 @@
     </row>
     <row r="108" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>3</v>
@@ -2703,75 +2702,75 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="D110" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="111" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>3</v>
@@ -2782,40 +2781,40 @@
     </row>
     <row r="116" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" ht="102" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" ht="68" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>3</v>
@@ -2824,970 +2823,970 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" ht="68" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" ht="102" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" ht="102" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6" ht="51" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" ht="102" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6" ht="85" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6" ht="68" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6" ht="170" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6" ht="187" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6" ht="102" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" spans="4:6" ht="68" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6" ht="34" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6" ht="170" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6" ht="119" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6" ht="85" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6" ht="170" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="4:6" ht="119" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177" spans="4:6" ht="102" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
     </row>
     <row r="188" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="189" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="191" spans="4:6" ht="85" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195" spans="4:6" ht="85" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="199" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200" spans="4:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="202" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="203" spans="4:6" ht="85" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="4:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D204" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="205" spans="4:6" ht="136" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="4:6" ht="34" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="207" spans="4:6" ht="153" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" ht="68" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
